--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -3529,6 +3529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4745,7 +4746,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5441,6 +5443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -200,12 +200,12 @@
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -230,15 +230,36 @@
     <t>APALE</t>
   </si>
   <si>
+    <t>ADELL</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
     <t>CORTEZ</t>
   </si>
   <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COLOTL</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
     <t>CORONA</t>
   </si>
   <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
     <t>ESPIRITU</t>
   </si>
   <si>
@@ -254,6 +275,9 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
@@ -275,25 +299,52 @@
     <t>ROMAN</t>
   </si>
   <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>XOCUA</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
     <t>TLECUILE</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>TEQUIHUATLE</t>
+    <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>JUAREZ</t>
@@ -308,9 +359,15 @@
     <t>HERRERA</t>
   </si>
   <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
     <t>NAZARIO</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>TEXOCO</t>
   </si>
   <si>
@@ -332,9 +389,18 @@
     <t>YOPIHUA</t>
   </si>
   <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
@@ -344,18 +410,42 @@
     <t>HECTOR</t>
   </si>
   <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
     <t>CRISTIAN JAVIER</t>
   </si>
   <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>ALMA RUBI</t>
+  </si>
+  <si>
     <t>NEHIZER JAEL</t>
   </si>
   <si>
     <t>JOSUE</t>
   </si>
   <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
     <t>LUIS ANGEL</t>
   </si>
   <si>
@@ -368,9 +458,15 @@
     <t>IRVING URIEL</t>
   </si>
   <si>
+    <t>DIEGO ADELFO</t>
+  </si>
+  <si>
     <t>EDGAR</t>
   </si>
   <si>
+    <t>ANDRES NOEL</t>
+  </si>
+  <si>
     <t>OCTAVIO</t>
   </si>
   <si>
@@ -392,6 +488,12 @@
     <t>LUIS ALEJANDRO</t>
   </si>
   <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>JOSE MATEO</t>
+  </si>
+  <si>
     <t>XIMENA</t>
   </si>
   <si>
@@ -401,6 +503,9 @@
     <t>DIANA ARELI</t>
   </si>
   <si>
+    <t>ANGEL AMILCAR</t>
+  </si>
+  <si>
     <t>MARCOS URIEL</t>
   </si>
   <si>
@@ -408,111 +513,6 @@
   </si>
   <si>
     <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ADELL</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BUENO</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COLOTL</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>JORGE LUIS</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>ALMA RUBI</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>DIEGO ADELFO</t>
-  </si>
-  <si>
-    <t>ANDRES NOEL</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>JOSE MATEO</t>
-  </si>
-  <si>
-    <t>ANGEL AMILCAR</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1580,7 +1580,7 @@
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1878,7 +1878,7 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>-1</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2114,7 +2114,7 @@
         <v>-1</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2173,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2288,10 +2288,10 @@
         <v>7</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2524,10 +2524,10 @@
         <v>6</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2645,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -2763,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2881,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -3058,7 +3058,7 @@
         <v>-1</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -3367,30 +3367,30 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3399,25 +3399,25 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.23</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>30.77</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3523,7 +3523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3561,16 +3561,16 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3581,16 +3581,16 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3601,16 +3601,16 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3621,130 +3621,130 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920005</v>
+        <v>20330051920001</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920005</v>
+        <v>20330051920001</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920005</v>
+        <v>20330051920002</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920005</v>
+        <v>20330051920002</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920005</v>
+        <v>20330051920002</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920008</v>
+        <v>20330051920002</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3755,79 +3755,79 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920008</v>
+        <v>20330051920002</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920008</v>
+        <v>20330051920002</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920362</v>
+        <v>20330051920361</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920362</v>
+        <v>20330051920361</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -3835,19 +3835,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920362</v>
+        <v>20330051920361</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>61</v>
@@ -3855,256 +3855,256 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920011</v>
+        <v>20330051920361</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920013</v>
+        <v>20330051920361</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920014</v>
+        <v>20330051920003</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920015</v>
+        <v>20330051920003</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920016</v>
+        <v>20330051920003</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920016</v>
+        <v>20330051920003</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920016</v>
+        <v>20330051920003</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920018</v>
+        <v>20330051920004</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920018</v>
+        <v>20330051920004</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920018</v>
+        <v>20330051920004</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920018</v>
+        <v>20330051920004</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920018</v>
+        <v>20330051920004</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920021</v>
+        <v>20330051920005</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -4115,116 +4115,116 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920023</v>
+        <v>20330051920005</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920024</v>
+        <v>20330051920005</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920024</v>
+        <v>20330051920005</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920024</v>
+        <v>20330051920005</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920024</v>
+        <v>20330051920005</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920024</v>
+        <v>20330051920006</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -4235,19 +4235,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920025</v>
+        <v>20330051920006</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920025</v>
+        <v>20330051920006</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -4275,276 +4275,276 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920025</v>
+        <v>20330051920006</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920025</v>
+        <v>20330051920006</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920025</v>
+        <v>20330051920007</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920026</v>
+        <v>20330051920007</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920026</v>
+        <v>20330051920007</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920026</v>
+        <v>20330051920007</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920026</v>
+        <v>20330051920007</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920060</v>
+        <v>20330051920008</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920027</v>
+        <v>20330051920008</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920030</v>
+        <v>20330051920008</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920031</v>
+        <v>20330051920008</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920031</v>
+        <v>20330051920008</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920031</v>
+        <v>20330051920008</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920033</v>
+        <v>20330051920362</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -4555,182 +4555,3182 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920035</v>
+        <v>20330051920362</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920035</v>
+        <v>20330051920362</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920035</v>
+        <v>20330051920362</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920037</v>
+        <v>20330051920362</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920037</v>
+        <v>20330051920362</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920038</v>
+        <v>20330051920009</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920038</v>
+        <v>20330051920009</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920038</v>
+        <v>20330051920009</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
+        <v>20330051920009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920009</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920010</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920010</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920010</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920010</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920010</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920011</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920011</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920011</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920011</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920011</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920012</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920012</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920012</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920013</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920013</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920013</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920013</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920013</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920014</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920014</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920015</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920015</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920015</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920015</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920015</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920016</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920016</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920016</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920016</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920016</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920016</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920017</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920017</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920017</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920017</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920017</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920018</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920018</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920018</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920018</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920018</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920018</v>
+      </c>
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920363</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920363</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920363</v>
+      </c>
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920363</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920363</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920021</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920021</v>
+      </c>
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920021</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920021</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920021</v>
+      </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920021</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920023</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920023</v>
+      </c>
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920023</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920023</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920024</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920024</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920024</v>
+      </c>
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920024</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920024</v>
+      </c>
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920024</v>
+      </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920025</v>
+      </c>
+      <c r="B131" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920025</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920025</v>
+      </c>
+      <c r="B133" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920025</v>
+      </c>
+      <c r="B134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" t="s">
+        <v>119</v>
+      </c>
+      <c r="D134" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920025</v>
+      </c>
+      <c r="B135" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920025</v>
+      </c>
+      <c r="B136" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920026</v>
+      </c>
+      <c r="B137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920026</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" t="s">
+        <v>120</v>
+      </c>
+      <c r="D138" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920026</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920026</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920026</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" t="s">
+        <v>120</v>
+      </c>
+      <c r="D141" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920026</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+      <c r="C142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D142" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920060</v>
+      </c>
+      <c r="B143" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920060</v>
+      </c>
+      <c r="B144" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" t="s">
+        <v>154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920060</v>
+      </c>
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" t="s">
+        <v>154</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920060</v>
+      </c>
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920060</v>
+      </c>
+      <c r="B147" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920027</v>
+      </c>
+      <c r="B148" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920027</v>
+      </c>
+      <c r="B149" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920027</v>
+      </c>
+      <c r="B150" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920027</v>
+      </c>
+      <c r="B151" t="s">
+        <v>92</v>
+      </c>
+      <c r="C151" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920027</v>
+      </c>
+      <c r="B152" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920028</v>
+      </c>
+      <c r="B153" t="s">
+        <v>93</v>
+      </c>
+      <c r="C153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920028</v>
+      </c>
+      <c r="B154" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>20330051920028</v>
+      </c>
+      <c r="B155" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920028</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156" t="s">
+        <v>156</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920028</v>
+      </c>
+      <c r="B157" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920029</v>
+      </c>
+      <c r="B158" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920029</v>
+      </c>
+      <c r="B159" t="s">
+        <v>94</v>
+      </c>
+      <c r="C159" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" t="s">
+        <v>157</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920029</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" t="s">
+        <v>84</v>
+      </c>
+      <c r="D160" t="s">
+        <v>157</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920029</v>
+      </c>
+      <c r="B161" t="s">
+        <v>94</v>
+      </c>
+      <c r="C161" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" t="s">
+        <v>157</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>20330051920029</v>
+      </c>
+      <c r="B162" t="s">
+        <v>94</v>
+      </c>
+      <c r="C162" t="s">
+        <v>84</v>
+      </c>
+      <c r="D162" t="s">
+        <v>157</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>20330051920030</v>
+      </c>
+      <c r="B163" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>20330051920030</v>
+      </c>
+      <c r="B164" t="s">
+        <v>95</v>
+      </c>
+      <c r="C164" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>20330051920030</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>20330051920030</v>
+      </c>
+      <c r="B166" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>20330051920030</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>20330051920031</v>
+      </c>
+      <c r="B168" t="s">
+        <v>95</v>
+      </c>
+      <c r="C168" t="s">
+        <v>122</v>
+      </c>
+      <c r="D168" t="s">
+        <v>159</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>20330051920031</v>
+      </c>
+      <c r="B169" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" t="s">
+        <v>159</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>20330051920031</v>
+      </c>
+      <c r="B170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170" t="s">
+        <v>122</v>
+      </c>
+      <c r="D170" t="s">
+        <v>159</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>20330051920031</v>
+      </c>
+      <c r="B171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" t="s">
+        <v>122</v>
+      </c>
+      <c r="D171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>20330051920031</v>
+      </c>
+      <c r="B172" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" t="s">
+        <v>122</v>
+      </c>
+      <c r="D172" t="s">
+        <v>159</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>20330051920031</v>
+      </c>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" t="s">
+        <v>122</v>
+      </c>
+      <c r="D173" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>20330051920032</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" t="s">
+        <v>123</v>
+      </c>
+      <c r="D174" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>20330051920032</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D175" t="s">
+        <v>135</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>20330051920032</v>
+      </c>
+      <c r="B176" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>20330051920032</v>
+      </c>
+      <c r="B177" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>20330051920032</v>
+      </c>
+      <c r="B178" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>20330051920033</v>
+      </c>
+      <c r="B179" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" t="s">
+        <v>97</v>
+      </c>
+      <c r="D179" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>20330051920033</v>
+      </c>
+      <c r="B180" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" t="s">
+        <v>97</v>
+      </c>
+      <c r="D180" t="s">
+        <v>160</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>20330051920033</v>
+      </c>
+      <c r="B181" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181" t="s">
+        <v>97</v>
+      </c>
+      <c r="D181" t="s">
+        <v>160</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>20330051920033</v>
+      </c>
+      <c r="B182" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" t="s">
+        <v>97</v>
+      </c>
+      <c r="D182" t="s">
+        <v>160</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>20330051920033</v>
+      </c>
+      <c r="B183" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" t="s">
+        <v>97</v>
+      </c>
+      <c r="D183" t="s">
+        <v>160</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>20330051920034</v>
+      </c>
+      <c r="B184" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" t="s">
+        <v>124</v>
+      </c>
+      <c r="D184" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>20330051920034</v>
+      </c>
+      <c r="B185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C185" t="s">
+        <v>124</v>
+      </c>
+      <c r="D185" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>20330051920034</v>
+      </c>
+      <c r="B186" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" t="s">
+        <v>124</v>
+      </c>
+      <c r="D186" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>20330051920034</v>
+      </c>
+      <c r="B187" t="s">
+        <v>98</v>
+      </c>
+      <c r="C187" t="s">
+        <v>124</v>
+      </c>
+      <c r="D187" t="s">
+        <v>161</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>20330051920034</v>
+      </c>
+      <c r="B188" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" t="s">
+        <v>124</v>
+      </c>
+      <c r="D188" t="s">
+        <v>161</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>20330051920035</v>
+      </c>
+      <c r="B189" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" t="s">
+        <v>162</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>20330051920035</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190" t="s">
+        <v>162</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>20330051920035</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" t="s">
+        <v>162</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>20330051920035</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" t="s">
+        <v>162</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>20330051920035</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" t="s">
+        <v>162</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>20330051920036</v>
+      </c>
+      <c r="B194" t="s">
+        <v>100</v>
+      </c>
+      <c r="C194" t="s">
+        <v>126</v>
+      </c>
+      <c r="D194" t="s">
+        <v>132</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>20330051920036</v>
+      </c>
+      <c r="B195" t="s">
+        <v>100</v>
+      </c>
+      <c r="C195" t="s">
+        <v>126</v>
+      </c>
+      <c r="D195" t="s">
+        <v>132</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>20330051920036</v>
+      </c>
+      <c r="B196" t="s">
+        <v>100</v>
+      </c>
+      <c r="C196" t="s">
+        <v>126</v>
+      </c>
+      <c r="D196" t="s">
+        <v>132</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>20330051920036</v>
+      </c>
+      <c r="B197" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" t="s">
+        <v>126</v>
+      </c>
+      <c r="D197" t="s">
+        <v>132</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>20330051920036</v>
+      </c>
+      <c r="B198" t="s">
+        <v>100</v>
+      </c>
+      <c r="C198" t="s">
+        <v>126</v>
+      </c>
+      <c r="D198" t="s">
+        <v>132</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>20330051920037</v>
+      </c>
+      <c r="B199" t="s">
+        <v>101</v>
+      </c>
+      <c r="C199" t="s">
+        <v>127</v>
+      </c>
+      <c r="D199" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>20330051920037</v>
+      </c>
+      <c r="B200" t="s">
+        <v>101</v>
+      </c>
+      <c r="C200" t="s">
+        <v>127</v>
+      </c>
+      <c r="D200" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>20330051920037</v>
+      </c>
+      <c r="B201" t="s">
+        <v>101</v>
+      </c>
+      <c r="C201" t="s">
+        <v>127</v>
+      </c>
+      <c r="D201" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>20330051920037</v>
+      </c>
+      <c r="B202" t="s">
+        <v>101</v>
+      </c>
+      <c r="C202" t="s">
+        <v>127</v>
+      </c>
+      <c r="D202" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>20330051920037</v>
+      </c>
+      <c r="B203" t="s">
+        <v>101</v>
+      </c>
+      <c r="C203" t="s">
+        <v>127</v>
+      </c>
+      <c r="D203" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>20330051920037</v>
+      </c>
+      <c r="B204" t="s">
+        <v>101</v>
+      </c>
+      <c r="C204" t="s">
+        <v>127</v>
+      </c>
+      <c r="D204" t="s">
+        <v>163</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
         <v>20330051920038</v>
       </c>
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B205" t="s">
+        <v>101</v>
+      </c>
+      <c r="C205" t="s">
+        <v>128</v>
+      </c>
+      <c r="D205" t="s">
+        <v>164</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>20330051920038</v>
+      </c>
+      <c r="B206" t="s">
+        <v>101</v>
+      </c>
+      <c r="C206" t="s">
+        <v>128</v>
+      </c>
+      <c r="D206" t="s">
+        <v>164</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>20330051920038</v>
+      </c>
+      <c r="B207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C207" t="s">
+        <v>128</v>
+      </c>
+      <c r="D207" t="s">
+        <v>164</v>
+      </c>
+      <c r="E207" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>20330051920038</v>
+      </c>
+      <c r="B208" t="s">
+        <v>101</v>
+      </c>
+      <c r="C208" t="s">
+        <v>128</v>
+      </c>
+      <c r="D208" t="s">
+        <v>164</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>20330051920038</v>
+      </c>
+      <c r="B209" t="s">
+        <v>101</v>
+      </c>
+      <c r="C209" t="s">
+        <v>128</v>
+      </c>
+      <c r="D209" t="s">
+        <v>164</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>20330051920038</v>
+      </c>
+      <c r="B210" t="s">
+        <v>101</v>
+      </c>
+      <c r="C210" t="s">
+        <v>128</v>
+      </c>
+      <c r="D210" t="s">
+        <v>164</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4769,16 +7769,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4786,16 +7786,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920018</v>
+        <v>20330051920024</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4803,16 +7803,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920024</v>
+        <v>20330051920025</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4820,33 +7820,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920025</v>
+        <v>20330051920001</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920001</v>
+        <v>20330051920005</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4857,13 +7857,13 @@
         <v>20330051920026</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4874,13 +7874,13 @@
         <v>20330051920038</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4891,13 +7891,13 @@
         <v>20330051920008</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4908,13 +7908,13 @@
         <v>20330051920362</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4925,13 +7925,13 @@
         <v>20330051920016</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4942,13 +7942,13 @@
         <v>20330051920031</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4959,13 +7959,13 @@
         <v>20330051920035</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4976,13 +7976,13 @@
         <v>20330051920037</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4993,13 +7993,13 @@
         <v>20330051920011</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5010,13 +8010,13 @@
         <v>20330051920013</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5027,13 +8027,13 @@
         <v>20330051920014</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5044,13 +8044,13 @@
         <v>20330051920015</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5061,13 +8061,13 @@
         <v>20330051920021</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5075,16 +8075,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920023</v>
+        <v>20330051920027</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5092,16 +8092,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920060</v>
+        <v>20330051920030</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5109,16 +8109,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920027</v>
+        <v>20330051920033</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5126,50 +8126,50 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920030</v>
+        <v>20330051920002</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920033</v>
+        <v>20330051920361</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5177,16 +8177,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920361</v>
+        <v>20330051920004</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5194,16 +8194,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920003</v>
+        <v>20330051920006</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5211,16 +8211,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920004</v>
+        <v>20330051920007</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5228,16 +8228,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920006</v>
+        <v>20330051920009</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5245,16 +8245,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920007</v>
+        <v>20330051920010</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5262,16 +8262,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920009</v>
+        <v>20330051920012</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5279,16 +8279,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920010</v>
+        <v>20330051920017</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5296,16 +8296,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920012</v>
+        <v>20330051920363</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5313,16 +8313,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920017</v>
+        <v>20330051920023</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5330,16 +8330,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920363</v>
+        <v>20330051920060</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5350,13 +8350,13 @@
         <v>20330051920028</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5367,13 +8367,13 @@
         <v>20330051920029</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5384,13 +8384,13 @@
         <v>20330051920032</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5401,13 +8401,13 @@
         <v>20330051920034</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5418,13 +8418,13 @@
         <v>20330051920036</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5437,7 +8437,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5470,236 +8470,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920011</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920013</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920060</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920027</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920030</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920033</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -197,22 +197,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>NC</t>
@@ -996,10 +996,10 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1114,19 +1114,19 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1173,19 +1173,19 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1232,19 +1232,19 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1291,19 +1291,19 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1350,19 +1350,19 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1409,19 +1409,19 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1471,7 +1471,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1530,7 +1530,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1589,7 +1589,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1645,19 +1645,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1707,7 +1707,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1763,19 +1763,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1825,7 +1825,7 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1869,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1881,19 +1881,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1940,19 +1940,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2002,10 +2002,10 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2058,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2111,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2176,19 +2176,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2235,10 +2235,10 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2294,19 +2294,19 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2335,7 +2335,7 @@
         <v>-1</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -2356,7 +2356,7 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2415,7 +2415,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2453,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2471,10 +2471,10 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2530,19 +2530,19 @@
         <v>10</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2577,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -2589,19 +2589,19 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2648,19 +2648,19 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2707,19 +2707,19 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2766,19 +2766,19 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2828,7 +2828,7 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -2837,7 +2837,7 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2884,10 +2884,10 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -2925,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -2946,7 +2946,7 @@
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -2955,7 +2955,7 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3002,19 +3002,19 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L38">
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3064,7 +3064,7 @@
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3120,19 +3120,19 @@
         <v>10</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L40">
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3158,7 +3158,7 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -3176,13 +3176,13 @@
         <v>8</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I41">
         <v>-1</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>-1</v>
@@ -3191,7 +3191,7 @@
         <v>-1</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N41">
         <v>-1</v>
@@ -3220,7 +3220,7 @@
         <v>-1</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3241,7 +3241,7 @@
         <v>-1</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>-1</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3335,30 +3335,27 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>53.85</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.199999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>46.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -3367,25 +3364,25 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>69.23</v>
+        <v>56.41</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>30.77</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3399,30 +3396,30 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>71.79000000000001</v>
+        <v>56.41</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>28.21</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -3431,30 +3428,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>74.36</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G5">
-        <v>25.64</v>
+        <v>28.21</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -3463,30 +3460,30 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>79.48999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>20.51</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -3495,25 +3492,25 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>74.36</v>
+      </c>
+      <c r="G7">
+        <v>25.64</v>
+      </c>
+      <c r="H7">
+        <v>7.2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>82.05</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9.4</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>17.95</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3520,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3570,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3587,10 +3584,10 @@
         <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3607,10 +3604,10 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3627,10 +3624,10 @@
         <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3647,30 +3644,30 @@
         <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920001</v>
+        <v>20330051920002</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3687,7 +3684,7 @@
         <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -3710,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3727,27 +3724,27 @@
         <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920002</v>
+        <v>20330051920361</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3755,259 +3752,259 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920002</v>
+        <v>20330051920004</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920003</v>
+        <v>20330051920006</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920003</v>
+        <v>20330051920007</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920003</v>
+        <v>20330051920008</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920003</v>
+        <v>20330051920008</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920003</v>
+        <v>20330051920008</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920004</v>
+        <v>20330051920008</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -4015,39 +4012,39 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920004</v>
+        <v>20330051920008</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920004</v>
+        <v>20330051920362</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -4055,196 +4052,196 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920004</v>
+        <v>20330051920362</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920004</v>
+        <v>20330051920362</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920005</v>
+        <v>20330051920362</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920005</v>
+        <v>20330051920362</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920005</v>
+        <v>20330051920009</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920005</v>
+        <v>20330051920010</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920005</v>
+        <v>20330051920011</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920005</v>
+        <v>20330051920012</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4255,19 +4252,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -4275,159 +4272,159 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920006</v>
+        <v>20330051920014</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920006</v>
+        <v>20330051920014</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920007</v>
+        <v>20330051920015</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920007</v>
+        <v>20330051920015</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920008</v>
+        <v>20330051920016</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -4435,19 +4432,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920008</v>
+        <v>20330051920016</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>60</v>
@@ -4455,179 +4452,179 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920008</v>
+        <v>20330051920017</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920008</v>
+        <v>20330051920018</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920008</v>
+        <v>20330051920018</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920008</v>
+        <v>20330051920018</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920362</v>
+        <v>20330051920018</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920362</v>
+        <v>20330051920018</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920362</v>
+        <v>20330051920363</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920362</v>
+        <v>20330051920021</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920362</v>
+        <v>20330051920021</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
         <v>60</v>
@@ -4635,39 +4632,39 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920362</v>
+        <v>20330051920021</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920009</v>
+        <v>20330051920021</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>63</v>
@@ -4675,139 +4672,139 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920009</v>
+        <v>20330051920023</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920009</v>
+        <v>20330051920024</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920009</v>
+        <v>20330051920024</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920009</v>
+        <v>20330051920024</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920010</v>
+        <v>20330051920024</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920010</v>
+        <v>20330051920024</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920010</v>
+        <v>20330051920025</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>63</v>
@@ -4815,119 +4812,119 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920010</v>
+        <v>20330051920025</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920010</v>
+        <v>20330051920025</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920011</v>
+        <v>20330051920025</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920011</v>
+        <v>20330051920025</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920011</v>
+        <v>20330051920026</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920011</v>
+        <v>20330051920026</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -4935,16 +4932,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920011</v>
+        <v>20330051920026</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -4955,39 +4952,39 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920012</v>
+        <v>20330051920026</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920012</v>
+        <v>20330051920060</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
         <v>59</v>
@@ -4995,139 +4992,139 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920012</v>
+        <v>20330051920027</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920012</v>
+        <v>20330051920028</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920012</v>
+        <v>20330051920029</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920013</v>
+        <v>20330051920030</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920013</v>
+        <v>20330051920030</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920013</v>
+        <v>20330051920030</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920013</v>
+        <v>20330051920031</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
         <v>60</v>
@@ -5135,259 +5132,259 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920013</v>
+        <v>20330051920031</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920014</v>
+        <v>20330051920031</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920014</v>
+        <v>20330051920031</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920014</v>
+        <v>20330051920032</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920014</v>
+        <v>20330051920033</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920014</v>
+        <v>20330051920033</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>20330051920015</v>
+        <v>20330051920033</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>20330051920015</v>
+        <v>20330051920034</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>20330051920015</v>
+        <v>20330051920035</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>20330051920015</v>
+        <v>20330051920035</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>20330051920015</v>
+        <v>20330051920035</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>20330051920016</v>
+        <v>20330051920035</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>20330051920016</v>
+        <v>20330051920036</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
         <v>59</v>
@@ -5395,119 +5392,119 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>20330051920016</v>
+        <v>20330051920037</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>20330051920016</v>
+        <v>20330051920037</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>20330051920016</v>
+        <v>20330051920037</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>20330051920016</v>
+        <v>20330051920038</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>20330051920017</v>
+        <v>20330051920038</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20330051920017</v>
+        <v>20330051920038</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>63</v>
@@ -5515,19 +5512,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>20330051920017</v>
+        <v>20330051920038</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
         <v>59</v>
@@ -5535,2202 +5532,22 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>20330051920017</v>
+        <v>20330051920038</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920017</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920018</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920018</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" t="s">
-        <v>114</v>
-      </c>
-      <c r="D104" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920018</v>
-      </c>
-      <c r="B105" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" t="s">
-        <v>114</v>
-      </c>
-      <c r="D105" t="s">
-        <v>147</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920018</v>
-      </c>
-      <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920018</v>
-      </c>
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" t="s">
-        <v>114</v>
-      </c>
-      <c r="D107" t="s">
-        <v>147</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920018</v>
-      </c>
-      <c r="B108" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" t="s">
-        <v>147</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920363</v>
-      </c>
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109" t="s">
-        <v>148</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920363</v>
-      </c>
-      <c r="B111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C111" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" t="s">
-        <v>148</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920363</v>
-      </c>
-      <c r="B112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C112" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920363</v>
-      </c>
-      <c r="B113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C113" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" t="s">
-        <v>148</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920021</v>
-      </c>
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920021</v>
-      </c>
-      <c r="B115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" t="s">
-        <v>149</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920021</v>
-      </c>
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920021</v>
-      </c>
-      <c r="B117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" t="s">
-        <v>149</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920021</v>
-      </c>
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C118" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920021</v>
-      </c>
-      <c r="B119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920023</v>
-      </c>
-      <c r="B120" t="s">
-        <v>87</v>
-      </c>
-      <c r="C120" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" t="s">
-        <v>150</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920023</v>
-      </c>
-      <c r="B121" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920023</v>
-      </c>
-      <c r="B122" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" t="s">
-        <v>117</v>
-      </c>
-      <c r="D122" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920023</v>
-      </c>
-      <c r="B123" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" t="s">
-        <v>150</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920023</v>
-      </c>
-      <c r="B124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D124" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920024</v>
-      </c>
-      <c r="B125" t="s">
-        <v>88</v>
-      </c>
-      <c r="C125" t="s">
-        <v>118</v>
-      </c>
-      <c r="D125" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920024</v>
-      </c>
-      <c r="B126" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" t="s">
-        <v>151</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920024</v>
-      </c>
-      <c r="B127" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920024</v>
-      </c>
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920024</v>
-      </c>
-      <c r="B129" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" t="s">
-        <v>118</v>
-      </c>
-      <c r="D129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920024</v>
-      </c>
-      <c r="B130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" t="s">
-        <v>118</v>
-      </c>
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920025</v>
-      </c>
-      <c r="B131" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D131" t="s">
-        <v>152</v>
-      </c>
-      <c r="E131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920025</v>
-      </c>
-      <c r="B132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D132" t="s">
-        <v>152</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920025</v>
-      </c>
-      <c r="B133" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" t="s">
-        <v>119</v>
-      </c>
-      <c r="D133" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920025</v>
-      </c>
-      <c r="B134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" t="s">
-        <v>119</v>
-      </c>
-      <c r="D134" t="s">
-        <v>152</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920025</v>
-      </c>
-      <c r="B135" t="s">
-        <v>89</v>
-      </c>
-      <c r="C135" t="s">
-        <v>119</v>
-      </c>
-      <c r="D135" t="s">
-        <v>152</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920025</v>
-      </c>
-      <c r="B136" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" t="s">
-        <v>119</v>
-      </c>
-      <c r="D136" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920026</v>
-      </c>
-      <c r="B137" t="s">
-        <v>90</v>
-      </c>
-      <c r="C137" t="s">
-        <v>120</v>
-      </c>
-      <c r="D137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920026</v>
-      </c>
-      <c r="B138" t="s">
-        <v>90</v>
-      </c>
-      <c r="C138" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" t="s">
-        <v>153</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920026</v>
-      </c>
-      <c r="B139" t="s">
-        <v>90</v>
-      </c>
-      <c r="C139" t="s">
-        <v>120</v>
-      </c>
-      <c r="D139" t="s">
-        <v>153</v>
-      </c>
-      <c r="E139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920026</v>
-      </c>
-      <c r="B140" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" t="s">
-        <v>153</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920026</v>
-      </c>
-      <c r="B141" t="s">
-        <v>90</v>
-      </c>
-      <c r="C141" t="s">
-        <v>120</v>
-      </c>
-      <c r="D141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920026</v>
-      </c>
-      <c r="B142" t="s">
-        <v>90</v>
-      </c>
-      <c r="C142" t="s">
-        <v>120</v>
-      </c>
-      <c r="D142" t="s">
-        <v>153</v>
-      </c>
-      <c r="E142" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920060</v>
-      </c>
-      <c r="B143" t="s">
-        <v>91</v>
-      </c>
-      <c r="C143" t="s">
-        <v>121</v>
-      </c>
-      <c r="D143" t="s">
-        <v>154</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920060</v>
-      </c>
-      <c r="B144" t="s">
-        <v>91</v>
-      </c>
-      <c r="C144" t="s">
-        <v>121</v>
-      </c>
-      <c r="D144" t="s">
-        <v>154</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920060</v>
-      </c>
-      <c r="B145" t="s">
-        <v>91</v>
-      </c>
-      <c r="C145" t="s">
-        <v>121</v>
-      </c>
-      <c r="D145" t="s">
-        <v>154</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920060</v>
-      </c>
-      <c r="B146" t="s">
-        <v>91</v>
-      </c>
-      <c r="C146" t="s">
-        <v>121</v>
-      </c>
-      <c r="D146" t="s">
-        <v>154</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920060</v>
-      </c>
-      <c r="B147" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" t="s">
-        <v>121</v>
-      </c>
-      <c r="D147" t="s">
-        <v>154</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920027</v>
-      </c>
-      <c r="B148" t="s">
-        <v>92</v>
-      </c>
-      <c r="C148" t="s">
-        <v>120</v>
-      </c>
-      <c r="D148" t="s">
-        <v>155</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920027</v>
-      </c>
-      <c r="B149" t="s">
-        <v>92</v>
-      </c>
-      <c r="C149" t="s">
-        <v>120</v>
-      </c>
-      <c r="D149" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920027</v>
-      </c>
-      <c r="B150" t="s">
-        <v>92</v>
-      </c>
-      <c r="C150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" t="s">
-        <v>155</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920027</v>
-      </c>
-      <c r="B151" t="s">
-        <v>92</v>
-      </c>
-      <c r="C151" t="s">
-        <v>120</v>
-      </c>
-      <c r="D151" t="s">
-        <v>155</v>
-      </c>
-      <c r="E151" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920027</v>
-      </c>
-      <c r="B152" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" t="s">
-        <v>120</v>
-      </c>
-      <c r="D152" t="s">
-        <v>155</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920028</v>
-      </c>
-      <c r="B153" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D153" t="s">
-        <v>156</v>
-      </c>
-      <c r="E153" t="s">
-        <v>6</v>
-      </c>
-      <c r="F153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920028</v>
-      </c>
-      <c r="B154" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" t="s">
-        <v>156</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920028</v>
-      </c>
-      <c r="B155" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D155" t="s">
-        <v>156</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920028</v>
-      </c>
-      <c r="B156" t="s">
-        <v>93</v>
-      </c>
-      <c r="C156" t="s">
-        <v>83</v>
-      </c>
-      <c r="D156" t="s">
-        <v>156</v>
-      </c>
-      <c r="E156" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920028</v>
-      </c>
-      <c r="B157" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" t="s">
-        <v>156</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920029</v>
-      </c>
-      <c r="B158" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" t="s">
-        <v>84</v>
-      </c>
-      <c r="D158" t="s">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920029</v>
-      </c>
-      <c r="B159" t="s">
-        <v>94</v>
-      </c>
-      <c r="C159" t="s">
-        <v>84</v>
-      </c>
-      <c r="D159" t="s">
-        <v>157</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920029</v>
-      </c>
-      <c r="B160" t="s">
-        <v>94</v>
-      </c>
-      <c r="C160" t="s">
-        <v>84</v>
-      </c>
-      <c r="D160" t="s">
-        <v>157</v>
-      </c>
-      <c r="E160" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920029</v>
-      </c>
-      <c r="B161" t="s">
-        <v>94</v>
-      </c>
-      <c r="C161" t="s">
-        <v>84</v>
-      </c>
-      <c r="D161" t="s">
-        <v>157</v>
-      </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920029</v>
-      </c>
-      <c r="B162" t="s">
-        <v>94</v>
-      </c>
-      <c r="C162" t="s">
-        <v>84</v>
-      </c>
-      <c r="D162" t="s">
-        <v>157</v>
-      </c>
-      <c r="E162" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920030</v>
-      </c>
-      <c r="B163" t="s">
-        <v>95</v>
-      </c>
-      <c r="C163" t="s">
-        <v>120</v>
-      </c>
-      <c r="D163" t="s">
-        <v>158</v>
-      </c>
-      <c r="E163" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920030</v>
-      </c>
-      <c r="B164" t="s">
-        <v>95</v>
-      </c>
-      <c r="C164" t="s">
-        <v>120</v>
-      </c>
-      <c r="D164" t="s">
-        <v>158</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920030</v>
-      </c>
-      <c r="B165" t="s">
-        <v>95</v>
-      </c>
-      <c r="C165" t="s">
-        <v>120</v>
-      </c>
-      <c r="D165" t="s">
-        <v>158</v>
-      </c>
-      <c r="E165" t="s">
-        <v>6</v>
-      </c>
-      <c r="F165" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920030</v>
-      </c>
-      <c r="B166" t="s">
-        <v>95</v>
-      </c>
-      <c r="C166" t="s">
-        <v>120</v>
-      </c>
-      <c r="D166" t="s">
-        <v>158</v>
-      </c>
-      <c r="E166" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920030</v>
-      </c>
-      <c r="B167" t="s">
-        <v>95</v>
-      </c>
-      <c r="C167" t="s">
-        <v>120</v>
-      </c>
-      <c r="D167" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920031</v>
-      </c>
-      <c r="B168" t="s">
-        <v>95</v>
-      </c>
-      <c r="C168" t="s">
-        <v>122</v>
-      </c>
-      <c r="D168" t="s">
-        <v>159</v>
-      </c>
-      <c r="E168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920031</v>
-      </c>
-      <c r="B169" t="s">
-        <v>95</v>
-      </c>
-      <c r="C169" t="s">
-        <v>122</v>
-      </c>
-      <c r="D169" t="s">
-        <v>159</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920031</v>
-      </c>
-      <c r="B170" t="s">
-        <v>95</v>
-      </c>
-      <c r="C170" t="s">
-        <v>122</v>
-      </c>
-      <c r="D170" t="s">
-        <v>159</v>
-      </c>
-      <c r="E170" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920031</v>
-      </c>
-      <c r="B171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C171" t="s">
-        <v>122</v>
-      </c>
-      <c r="D171" t="s">
-        <v>159</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920031</v>
-      </c>
-      <c r="B172" t="s">
-        <v>95</v>
-      </c>
-      <c r="C172" t="s">
-        <v>122</v>
-      </c>
-      <c r="D172" t="s">
-        <v>159</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920031</v>
-      </c>
-      <c r="B173" t="s">
-        <v>95</v>
-      </c>
-      <c r="C173" t="s">
-        <v>122</v>
-      </c>
-      <c r="D173" t="s">
-        <v>159</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920032</v>
-      </c>
-      <c r="B174" t="s">
-        <v>96</v>
-      </c>
-      <c r="C174" t="s">
-        <v>123</v>
-      </c>
-      <c r="D174" t="s">
-        <v>135</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920032</v>
-      </c>
-      <c r="B175" t="s">
-        <v>96</v>
-      </c>
-      <c r="C175" t="s">
-        <v>123</v>
-      </c>
-      <c r="D175" t="s">
-        <v>135</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920032</v>
-      </c>
-      <c r="B176" t="s">
-        <v>96</v>
-      </c>
-      <c r="C176" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176" t="s">
-        <v>135</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920032</v>
-      </c>
-      <c r="B177" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" t="s">
-        <v>123</v>
-      </c>
-      <c r="D177" t="s">
-        <v>135</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920032</v>
-      </c>
-      <c r="B178" t="s">
-        <v>96</v>
-      </c>
-      <c r="C178" t="s">
-        <v>123</v>
-      </c>
-      <c r="D178" t="s">
-        <v>135</v>
-      </c>
-      <c r="E178" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920033</v>
-      </c>
-      <c r="B179" t="s">
-        <v>97</v>
-      </c>
-      <c r="C179" t="s">
-        <v>97</v>
-      </c>
-      <c r="D179" t="s">
-        <v>160</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920033</v>
-      </c>
-      <c r="B180" t="s">
-        <v>97</v>
-      </c>
-      <c r="C180" t="s">
-        <v>97</v>
-      </c>
-      <c r="D180" t="s">
-        <v>160</v>
-      </c>
-      <c r="E180" t="s">
-        <v>7</v>
-      </c>
-      <c r="F180" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920033</v>
-      </c>
-      <c r="B181" t="s">
-        <v>97</v>
-      </c>
-      <c r="C181" t="s">
-        <v>97</v>
-      </c>
-      <c r="D181" t="s">
-        <v>160</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920033</v>
-      </c>
-      <c r="B182" t="s">
-        <v>97</v>
-      </c>
-      <c r="C182" t="s">
-        <v>97</v>
-      </c>
-      <c r="D182" t="s">
-        <v>160</v>
-      </c>
-      <c r="E182" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920033</v>
-      </c>
-      <c r="B183" t="s">
-        <v>97</v>
-      </c>
-      <c r="C183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D183" t="s">
-        <v>160</v>
-      </c>
-      <c r="E183" t="s">
-        <v>5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920034</v>
-      </c>
-      <c r="B184" t="s">
-        <v>98</v>
-      </c>
-      <c r="C184" t="s">
-        <v>124</v>
-      </c>
-      <c r="D184" t="s">
-        <v>161</v>
-      </c>
-      <c r="E184" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920034</v>
-      </c>
-      <c r="B185" t="s">
-        <v>98</v>
-      </c>
-      <c r="C185" t="s">
-        <v>124</v>
-      </c>
-      <c r="D185" t="s">
-        <v>161</v>
-      </c>
-      <c r="E185" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920034</v>
-      </c>
-      <c r="B186" t="s">
-        <v>98</v>
-      </c>
-      <c r="C186" t="s">
-        <v>124</v>
-      </c>
-      <c r="D186" t="s">
-        <v>161</v>
-      </c>
-      <c r="E186" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920034</v>
-      </c>
-      <c r="B187" t="s">
-        <v>98</v>
-      </c>
-      <c r="C187" t="s">
-        <v>124</v>
-      </c>
-      <c r="D187" t="s">
-        <v>161</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920034</v>
-      </c>
-      <c r="B188" t="s">
-        <v>98</v>
-      </c>
-      <c r="C188" t="s">
-        <v>124</v>
-      </c>
-      <c r="D188" t="s">
-        <v>161</v>
-      </c>
-      <c r="E188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920035</v>
-      </c>
-      <c r="B189" t="s">
-        <v>99</v>
-      </c>
-      <c r="C189" t="s">
-        <v>125</v>
-      </c>
-      <c r="D189" t="s">
-        <v>162</v>
-      </c>
-      <c r="E189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920035</v>
-      </c>
-      <c r="B190" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" t="s">
-        <v>125</v>
-      </c>
-      <c r="D190" t="s">
-        <v>162</v>
-      </c>
-      <c r="E190" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920035</v>
-      </c>
-      <c r="B191" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" t="s">
-        <v>125</v>
-      </c>
-      <c r="D191" t="s">
-        <v>162</v>
-      </c>
-      <c r="E191" t="s">
-        <v>7</v>
-      </c>
-      <c r="F191" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920035</v>
-      </c>
-      <c r="B192" t="s">
-        <v>99</v>
-      </c>
-      <c r="C192" t="s">
-        <v>125</v>
-      </c>
-      <c r="D192" t="s">
-        <v>162</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
-      </c>
-      <c r="F192" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920035</v>
-      </c>
-      <c r="B193" t="s">
-        <v>99</v>
-      </c>
-      <c r="C193" t="s">
-        <v>125</v>
-      </c>
-      <c r="D193" t="s">
-        <v>162</v>
-      </c>
-      <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>20330051920036</v>
-      </c>
-      <c r="B194" t="s">
-        <v>100</v>
-      </c>
-      <c r="C194" t="s">
-        <v>126</v>
-      </c>
-      <c r="D194" t="s">
-        <v>132</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>20330051920036</v>
-      </c>
-      <c r="B195" t="s">
-        <v>100</v>
-      </c>
-      <c r="C195" t="s">
-        <v>126</v>
-      </c>
-      <c r="D195" t="s">
-        <v>132</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>20330051920036</v>
-      </c>
-      <c r="B196" t="s">
-        <v>100</v>
-      </c>
-      <c r="C196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D196" t="s">
-        <v>132</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>20330051920036</v>
-      </c>
-      <c r="B197" t="s">
-        <v>100</v>
-      </c>
-      <c r="C197" t="s">
-        <v>126</v>
-      </c>
-      <c r="D197" t="s">
-        <v>132</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>20330051920036</v>
-      </c>
-      <c r="B198" t="s">
-        <v>100</v>
-      </c>
-      <c r="C198" t="s">
-        <v>126</v>
-      </c>
-      <c r="D198" t="s">
-        <v>132</v>
-      </c>
-      <c r="E198" t="s">
-        <v>7</v>
-      </c>
-      <c r="F198" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>20330051920037</v>
-      </c>
-      <c r="B199" t="s">
-        <v>101</v>
-      </c>
-      <c r="C199" t="s">
-        <v>127</v>
-      </c>
-      <c r="D199" t="s">
-        <v>163</v>
-      </c>
-      <c r="E199" t="s">
-        <v>7</v>
-      </c>
-      <c r="F199" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>20330051920037</v>
-      </c>
-      <c r="B200" t="s">
-        <v>101</v>
-      </c>
-      <c r="C200" t="s">
-        <v>127</v>
-      </c>
-      <c r="D200" t="s">
-        <v>163</v>
-      </c>
-      <c r="E200" t="s">
-        <v>9</v>
-      </c>
-      <c r="F200" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>20330051920037</v>
-      </c>
-      <c r="B201" t="s">
-        <v>101</v>
-      </c>
-      <c r="C201" t="s">
-        <v>127</v>
-      </c>
-      <c r="D201" t="s">
-        <v>163</v>
-      </c>
-      <c r="E201" t="s">
-        <v>4</v>
-      </c>
-      <c r="F201" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>20330051920037</v>
-      </c>
-      <c r="B202" t="s">
-        <v>101</v>
-      </c>
-      <c r="C202" t="s">
-        <v>127</v>
-      </c>
-      <c r="D202" t="s">
-        <v>163</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>20330051920037</v>
-      </c>
-      <c r="B203" t="s">
-        <v>101</v>
-      </c>
-      <c r="C203" t="s">
-        <v>127</v>
-      </c>
-      <c r="D203" t="s">
-        <v>163</v>
-      </c>
-      <c r="E203" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>20330051920037</v>
-      </c>
-      <c r="B204" t="s">
-        <v>101</v>
-      </c>
-      <c r="C204" t="s">
-        <v>127</v>
-      </c>
-      <c r="D204" t="s">
-        <v>163</v>
-      </c>
-      <c r="E204" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>20330051920038</v>
-      </c>
-      <c r="B205" t="s">
-        <v>101</v>
-      </c>
-      <c r="C205" t="s">
-        <v>128</v>
-      </c>
-      <c r="D205" t="s">
-        <v>164</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>20330051920038</v>
-      </c>
-      <c r="B206" t="s">
-        <v>101</v>
-      </c>
-      <c r="C206" t="s">
-        <v>128</v>
-      </c>
-      <c r="D206" t="s">
-        <v>164</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>20330051920038</v>
-      </c>
-      <c r="B207" t="s">
-        <v>101</v>
-      </c>
-      <c r="C207" t="s">
-        <v>128</v>
-      </c>
-      <c r="D207" t="s">
-        <v>164</v>
-      </c>
-      <c r="E207" t="s">
-        <v>4</v>
-      </c>
-      <c r="F207" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>20330051920038</v>
-      </c>
-      <c r="B208" t="s">
-        <v>101</v>
-      </c>
-      <c r="C208" t="s">
-        <v>128</v>
-      </c>
-      <c r="D208" t="s">
-        <v>164</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>20330051920038</v>
-      </c>
-      <c r="B209" t="s">
-        <v>101</v>
-      </c>
-      <c r="C209" t="s">
-        <v>128</v>
-      </c>
-      <c r="D209" t="s">
-        <v>164</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>20330051920038</v>
-      </c>
-      <c r="B210" t="s">
-        <v>101</v>
-      </c>
-      <c r="C210" t="s">
-        <v>128</v>
-      </c>
-      <c r="D210" t="s">
-        <v>164</v>
-      </c>
-      <c r="E210" t="s">
-        <v>7</v>
-      </c>
-      <c r="F210" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7769,16 +5586,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920018</v>
+        <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -7786,16 +5603,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920024</v>
+        <v>20330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -7803,16 +5620,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920025</v>
+        <v>20330051920008</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -7820,189 +5637,189 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920001</v>
+        <v>20330051920362</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920005</v>
+        <v>20330051920016</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920026</v>
+        <v>20330051920018</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920038</v>
+        <v>20330051920024</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920008</v>
+        <v>20330051920025</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920362</v>
+        <v>20330051920038</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920016</v>
+        <v>20330051920002</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920031</v>
+        <v>20330051920021</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920035</v>
+        <v>20330051920026</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920037</v>
+        <v>20330051920031</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920011</v>
+        <v>20330051920035</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8019,106 +5836,106 @@
         <v>142</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920014</v>
+        <v>20330051920030</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920015</v>
+        <v>20330051920033</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920021</v>
+        <v>20330051920037</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920027</v>
+        <v>20330051920014</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920030</v>
+        <v>20330051920015</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920033</v>
+        <v>20330051920361</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -8126,223 +5943,223 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920361</v>
+        <v>20330051920004</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920003</v>
+        <v>20330051920006</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920004</v>
+        <v>20330051920007</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920006</v>
+        <v>20330051920009</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920007</v>
+        <v>20330051920010</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920009</v>
+        <v>20330051920011</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920010</v>
+        <v>20330051920012</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920012</v>
+        <v>20330051920017</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920017</v>
+        <v>20330051920363</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920363</v>
+        <v>20330051920023</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920023</v>
+        <v>20330051920060</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920060</v>
+        <v>20330051920027</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8359,7 +6176,7 @@
         <v>156</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8376,7 +6193,7 @@
         <v>157</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8393,7 +6210,7 @@
         <v>135</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8410,7 +6227,7 @@
         <v>161</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8427,7 +6244,7 @@
         <v>132</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8437,7 +6254,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8467,7 +6284,536 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920361</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920363</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920060</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920027</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920028</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920029</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920032</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920034</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920036</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -197,18 +197,18 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
+    <t>Cruz Alejo José Armando</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
-    <t>Cruz Alejo José Armando</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
@@ -233,6 +233,153 @@
     <t>ADELL</t>
   </si>
   <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>NAZARIO</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>JARQUIN</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>NEHIZER JAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING URIEL</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>OCTAVIO</t>
+  </si>
+  <si>
+    <t>JESUS DARIO</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>DIANA ARELI</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -242,57 +389,24 @@
     <t>BUENO</t>
   </si>
   <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
     <t>COCOTLE</t>
   </si>
   <si>
     <t>COLOTL</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
     <t>COYOHUA</t>
   </si>
   <si>
     <t>ESPIRITU</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
@@ -305,33 +419,15 @@
     <t>ROMERO</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
     <t>TEQUIHUATLE</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>CASTILLO</t>
   </si>
   <si>
@@ -341,78 +437,33 @@
     <t>SOLIS</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
     <t>BALDERAS</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>MIXCOHA</t>
   </si>
   <si>
-    <t>NAZARIO</t>
-  </si>
-  <si>
     <t>AMADOR</t>
   </si>
   <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>VINALAY</t>
   </si>
   <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
     <t>COXCAHUA</t>
   </si>
   <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>JARQUIN</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
-  </si>
-  <si>
     <t>JAIR</t>
   </si>
   <si>
@@ -422,21 +473,12 @@
     <t>JORGE LUIS</t>
   </si>
   <si>
-    <t>CRISTIAN JAVIER</t>
-  </si>
-  <si>
     <t>MISAEL</t>
   </si>
   <si>
     <t>ALMA RUBI</t>
   </si>
   <si>
-    <t>NEHIZER JAEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
     <t>MARIANA</t>
   </si>
   <si>
@@ -446,42 +488,18 @@
     <t>IGNACIO</t>
   </si>
   <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
     <t>JUAN MANUEL</t>
   </si>
   <si>
-    <t>IRVING URIEL</t>
-  </si>
-  <si>
     <t>DIEGO ADELFO</t>
   </si>
   <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
     <t>ANDRES NOEL</t>
   </si>
   <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
     <t>JESUS HAZAEL</t>
   </si>
   <si>
-    <t>JESUS DARIO</t>
-  </si>
-  <si>
-    <t>JOSE JULIAN</t>
-  </si>
-  <si>
-    <t>JOSE ABRAHAM</t>
-  </si>
-  <si>
     <t>ANGEL SAID</t>
   </si>
   <si>
@@ -494,25 +512,7 @@
     <t>JOSE MATEO</t>
   </si>
   <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
-  </si>
-  <si>
     <t>ANGEL AMILCAR</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1300,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -1772,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -1949,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2126,10 +2126,10 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -2244,7 +2244,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2303,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <v>6</v>
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -2598,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -2716,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <v>7</v>
@@ -2775,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -2834,7 +2834,7 @@
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -2893,7 +2893,7 @@
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>-1</v>
@@ -3011,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>7</v>
@@ -3129,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M40">
         <v>6</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3335,27 +3335,30 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="G2">
-        <v>69.23</v>
+        <v>5.13</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -3364,30 +3367,30 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="G3">
-        <v>5.13</v>
+        <v>15.38</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3396,30 +3399,30 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G4">
-        <v>17.95</v>
+        <v>28.21</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -3431,16 +3434,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>64.09999999999999</v>
       </c>
       <c r="G5">
-        <v>28.21</v>
+        <v>5.13</v>
       </c>
       <c r="H5">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -3520,7 +3523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3558,16 +3561,16 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3578,16 +3581,16 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3598,16 +3601,16 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3618,16 +3621,16 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3638,16 +3641,16 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3658,16 +3661,16 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3678,16 +3681,16 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3698,16 +3701,16 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3718,76 +3721,76 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920003</v>
+        <v>20330051920005</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920004</v>
+        <v>20330051920005</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3795,16 +3798,16 @@
         <v>20330051920005</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -3815,16 +3818,16 @@
         <v>20330051920005</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -3832,199 +3835,199 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920005</v>
+        <v>20330051920008</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920005</v>
+        <v>20330051920008</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920005</v>
+        <v>20330051920008</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920006</v>
+        <v>20330051920008</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920007</v>
+        <v>20330051920008</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -4032,59 +4035,59 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920362</v>
+        <v>20330051920013</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920362</v>
+        <v>20330051920013</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920362</v>
+        <v>20330051920014</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>60</v>
@@ -4092,239 +4095,239 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920362</v>
+        <v>20330051920016</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920362</v>
+        <v>20330051920016</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920009</v>
+        <v>20330051920016</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920010</v>
+        <v>20330051920016</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920011</v>
+        <v>20330051920016</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920012</v>
+        <v>20330051920018</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920013</v>
+        <v>20330051920018</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920013</v>
+        <v>20330051920018</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920013</v>
+        <v>20330051920018</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
-        <v>142</v>
-      </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920014</v>
+        <v>20330051920018</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920014</v>
+        <v>20330051920021</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>110</v>
       </c>
-      <c r="D39" t="s">
-        <v>143</v>
-      </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920015</v>
+        <v>20330051920021</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -4332,59 +4335,59 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920015</v>
+        <v>20330051920021</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
         <v>62</v>
@@ -4392,319 +4395,319 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920016</v>
+        <v>20330051920024</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920017</v>
+        <v>20330051920025</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920018</v>
+        <v>20330051920025</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920018</v>
+        <v>20330051920025</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920018</v>
+        <v>20330051920025</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920018</v>
+        <v>20330051920025</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920018</v>
+        <v>20330051920026</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920363</v>
+        <v>20330051920026</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920021</v>
+        <v>20330051920026</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920021</v>
+        <v>20330051920026</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920021</v>
+        <v>20330051920030</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920021</v>
+        <v>20330051920030</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920023</v>
+        <v>20330051920031</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920024</v>
+        <v>20330051920031</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -4712,36 +4715,36 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920024</v>
+        <v>20330051920031</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920024</v>
+        <v>20330051920031</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -4752,99 +4755,99 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920024</v>
+        <v>20330051920033</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920024</v>
+        <v>20330051920033</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920025</v>
+        <v>20330051920035</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920025</v>
+        <v>20330051920035</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920025</v>
+        <v>20330051920035</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>60</v>
@@ -4852,702 +4855,182 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920025</v>
+        <v>20330051920035</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920025</v>
+        <v>20330051920037</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920026</v>
+        <v>20330051920037</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920026</v>
+        <v>20330051920037</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920026</v>
+        <v>20330051920038</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920026</v>
+        <v>20330051920038</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920060</v>
+        <v>20330051920038</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920027</v>
+        <v>20330051920038</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920028</v>
+        <v>20330051920038</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920029</v>
-      </c>
-      <c r="B76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920030</v>
-      </c>
-      <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920030</v>
-      </c>
-      <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920030</v>
-      </c>
-      <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920031</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>159</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920031</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920031</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920031</v>
-      </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920032</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920033</v>
-      </c>
-      <c r="B85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
-        <v>160</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920033</v>
-      </c>
-      <c r="B86" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920033</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920034</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920035</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920035</v>
-      </c>
-      <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920035</v>
-      </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920035</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920036</v>
-      </c>
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920037</v>
-      </c>
-      <c r="B94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" t="s">
-        <v>163</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920037</v>
-      </c>
-      <c r="B95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" t="s">
-        <v>163</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920037</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96" t="s">
-        <v>163</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920038</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" t="s">
-        <v>164</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920038</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
-        <v>164</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920038</v>
-      </c>
-      <c r="B99" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" t="s">
-        <v>164</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920038</v>
-      </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" t="s">
-        <v>164</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920038</v>
-      </c>
-      <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" t="s">
-        <v>164</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5592,10 +5075,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5606,13 +5089,13 @@
         <v>20330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5623,13 +5106,13 @@
         <v>20330051920008</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5640,13 +5123,13 @@
         <v>20330051920362</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5657,13 +5140,13 @@
         <v>20330051920016</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5674,13 +5157,13 @@
         <v>20330051920018</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5691,13 +5174,13 @@
         <v>20330051920024</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5708,13 +5191,13 @@
         <v>20330051920025</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -5725,13 +5208,13 @@
         <v>20330051920038</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -5745,10 +5228,10 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -5756,16 +5239,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920021</v>
+        <v>20330051920026</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -5773,16 +5256,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920026</v>
+        <v>20330051920031</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -5790,16 +5273,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920031</v>
+        <v>20330051920035</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -5807,33 +5290,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920035</v>
+        <v>20330051920021</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920013</v>
+        <v>20330051920037</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -5841,53 +5324,53 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920030</v>
+        <v>20330051920013</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920033</v>
+        <v>20330051920030</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920037</v>
+        <v>20330051920033</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5895,186 +5378,186 @@
         <v>20330051920014</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920015</v>
+        <v>20330051920361</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920361</v>
+        <v>20330051920003</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920003</v>
+        <v>20330051920004</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920004</v>
+        <v>20330051920006</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920006</v>
+        <v>20330051920007</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920007</v>
+        <v>20330051920009</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920009</v>
+        <v>20330051920010</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920010</v>
+        <v>20330051920011</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920011</v>
+        <v>20330051920012</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920012</v>
+        <v>20330051920015</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6082,16 +5565,16 @@
         <v>20330051920017</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6099,16 +5582,16 @@
         <v>20330051920363</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6116,16 +5599,16 @@
         <v>20330051920023</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6133,16 +5616,16 @@
         <v>20330051920060</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6150,16 +5633,16 @@
         <v>20330051920027</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6167,16 +5650,16 @@
         <v>20330051920028</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6184,16 +5667,16 @@
         <v>20330051920029</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6201,16 +5684,16 @@
         <v>20330051920032</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6218,16 +5701,16 @@
         <v>20330051920034</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6235,16 +5718,16 @@
         <v>20330051920036</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6254,7 +5737,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6289,22 +5772,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920014</v>
+        <v>20330051920013</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6312,22 +5795,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920014</v>
+        <v>20330051920013</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6335,19 +5818,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920015</v>
+        <v>20330051920030</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -6358,22 +5841,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920015</v>
+        <v>20330051920030</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6381,438 +5864,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920361</v>
+        <v>20330051920014</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920017</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920363</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920023</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920060</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920027</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920028</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920029</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920032</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920034</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920036</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -3567,10 +3567,10 @@
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3587,10 +3587,10 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3607,10 +3607,10 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3647,10 +3647,10 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3687,10 +3687,10 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3727,10 +3727,10 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3747,10 +3747,10 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3767,10 +3767,10 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3827,10 +3827,10 @@
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3847,10 +3847,10 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3867,10 +3867,10 @@
         <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3887,10 +3887,10 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3927,10 +3927,10 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4147,10 +4147,10 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4167,10 +4167,10 @@
         <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4187,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4207,10 +4207,10 @@
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4227,10 +4227,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4267,10 +4267,10 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4287,10 +4287,10 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4327,10 +4327,10 @@
         <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4347,10 +4347,10 @@
         <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -3567,10 +3567,10 @@
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3587,10 +3587,10 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3607,10 +3607,10 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3627,10 +3627,10 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3647,10 +3647,10 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3687,10 +3687,10 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3707,10 +3707,10 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3727,10 +3727,10 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3747,10 +3747,10 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3767,10 +3767,10 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3787,10 +3787,10 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3807,10 +3807,10 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3827,10 +3827,10 @@
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4047,10 +4047,10 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4067,10 +4067,10 @@
         <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4107,10 +4107,10 @@
         <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4147,10 +4147,10 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4167,10 +4167,10 @@
         <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4187,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4207,10 +4207,10 @@
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4227,10 +4227,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4247,10 +4247,10 @@
         <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4267,10 +4267,10 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4287,10 +4287,10 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4327,10 +4327,10 @@
         <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4347,10 +4347,10 @@
         <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">

--- a/grupos/2AEM - Estadisticos 2020.xlsx
+++ b/grupos/2AEM - Estadisticos 2020.xlsx
@@ -3587,10 +3587,10 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3607,10 +3607,10 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3627,10 +3627,10 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3647,10 +3647,10 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3687,10 +3687,10 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3707,10 +3707,10 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3727,10 +3727,10 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3847,10 +3847,10 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3887,10 +3887,10 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3907,10 +3907,10 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3927,10 +3927,10 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3947,10 +3947,10 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3967,10 +3967,10 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3987,10 +3987,10 @@
         <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4007,10 +4007,10 @@
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4027,10 +4027,10 @@
         <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4047,10 +4047,10 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4067,10 +4067,10 @@
         <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4107,10 +4107,10 @@
         <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4147,10 +4147,10 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4167,10 +4167,10 @@
         <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4187,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4207,10 +4207,10 @@
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4227,10 +4227,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4247,10 +4247,10 @@
         <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4267,10 +4267,10 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4287,10 +4287,10 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4387,10 +4387,10 @@
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4407,10 +4407,10 @@
         <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4427,10 +4427,10 @@
         <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4447,10 +4447,10 @@
         <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4467,10 +4467,10 @@
         <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4527,10 +4527,10 @@
         <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4547,10 +4547,10 @@
         <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4567,10 +4567,10 @@
         <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4587,10 +4587,10 @@
         <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4607,10 +4607,10 @@
         <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4627,10 +4627,10 @@
         <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4687,10 +4687,10 @@
         <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4707,10 +4707,10 @@
         <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4727,10 +4727,10 @@
         <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4747,10 +4747,10 @@
         <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4807,10 +4807,10 @@
         <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4847,10 +4847,10 @@
         <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4887,10 +4887,10 @@
         <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4907,10 +4907,10 @@
         <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4927,10 +4927,10 @@
         <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6">
